--- a/contratos/contratos-10-2016.xlsx
+++ b/contratos/contratos-10-2016.xlsx
@@ -784,7 +784,7 @@
     <t>BOURLOT NESTOR CONRADO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CONSTRUCCIONES DE ING Y ARQ COINAR S.R.L.</t>
@@ -868,7 +868,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1057,7 +1057,7 @@
     <t>OS.LO ARGENTINA S.A.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SILVA GRISELDA PATRICIA</t>
@@ -1549,631 +1549,631 @@
     <t>115</t>
   </si>
   <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>4.460,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>689.500,00</t>
-  </si>
-  <si>
-    <t>272.000,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>79.815,00</t>
-  </si>
-  <si>
-    <t>25.830,00</t>
-  </si>
-  <si>
-    <t>744,54</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.998,15</t>
-  </si>
-  <si>
-    <t>150.441,82</t>
-  </si>
-  <si>
-    <t>28.645,20</t>
-  </si>
-  <si>
-    <t>45.673,46</t>
-  </si>
-  <si>
-    <t>6.970,00</t>
-  </si>
-  <si>
-    <t>7.290,00</t>
-  </si>
-  <si>
-    <t>20.634,73</t>
-  </si>
-  <si>
-    <t>5.224,00</t>
-  </si>
-  <si>
-    <t>27.827,33</t>
-  </si>
-  <si>
-    <t>12.608,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>9.190,00</t>
-  </si>
-  <si>
-    <t>6.890,00</t>
-  </si>
-  <si>
-    <t>31,36</t>
-  </si>
-  <si>
-    <t>2.626,98</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>269.239,92</t>
-  </si>
-  <si>
-    <t>14.098,35</t>
-  </si>
-  <si>
-    <t>3.916,00</t>
-  </si>
-  <si>
-    <t>5.545,77</t>
-  </si>
-  <si>
-    <t>14.803,00</t>
-  </si>
-  <si>
-    <t>3.038,10</t>
-  </si>
-  <si>
-    <t>1.769,00</t>
-  </si>
-  <si>
-    <t>746,00</t>
-  </si>
-  <si>
-    <t>17.793,94</t>
-  </si>
-  <si>
-    <t>3.110,74</t>
-  </si>
-  <si>
-    <t>407,80</t>
-  </si>
-  <si>
-    <t>39.703,57</t>
-  </si>
-  <si>
-    <t>19.124,00</t>
-  </si>
-  <si>
-    <t>7.971,22</t>
-  </si>
-  <si>
-    <t>5.863,22</t>
-  </si>
-  <si>
-    <t>386.118,60</t>
-  </si>
-  <si>
-    <t>7.001,69</t>
-  </si>
-  <si>
-    <t>1.047,00</t>
-  </si>
-  <si>
-    <t>20.870,85</t>
-  </si>
-  <si>
-    <t>221,48</t>
-  </si>
-  <si>
-    <t>775,87</t>
-  </si>
-  <si>
-    <t>343.200,00</t>
-  </si>
-  <si>
-    <t>22.449,89</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>7.908,48</t>
-  </si>
-  <si>
-    <t>15.110,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>97.182,00</t>
-  </si>
-  <si>
-    <t>12.522,78</t>
-  </si>
-  <si>
-    <t>172,24</t>
-  </si>
-  <si>
-    <t>308,93</t>
-  </si>
-  <si>
-    <t>14.431,14</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>4.715,00</t>
-  </si>
-  <si>
-    <t>19.740,00</t>
-  </si>
-  <si>
-    <t>366.662,00</t>
-  </si>
-  <si>
-    <t>5.243,23</t>
-  </si>
-  <si>
-    <t>1.014,60</t>
-  </si>
-  <si>
-    <t>501,00</t>
-  </si>
-  <si>
-    <t>501,43</t>
-  </si>
-  <si>
-    <t>20.940,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>21.264,00</t>
-  </si>
-  <si>
-    <t>3.337,80</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>294,00</t>
-  </si>
-  <si>
-    <t>1.392,00</t>
-  </si>
-  <si>
-    <t>5.169,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>5.660,00</t>
-  </si>
-  <si>
-    <t>57.070,00</t>
-  </si>
-  <si>
-    <t>9.067,00</t>
-  </si>
-  <si>
-    <t>117.450,00</t>
-  </si>
-  <si>
-    <t>30.560,00</t>
-  </si>
-  <si>
-    <t>104,50</t>
-  </si>
-  <si>
-    <t>7.130,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>8.522,00</t>
-  </si>
-  <si>
-    <t>4.540,00</t>
-  </si>
-  <si>
-    <t>399,98</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>577,80</t>
-  </si>
-  <si>
-    <t>2.440,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>7,41</t>
-  </si>
-  <si>
-    <t>26,25</t>
-  </si>
-  <si>
-    <t>27.994,92</t>
-  </si>
-  <si>
-    <t>5.635,82</t>
-  </si>
-  <si>
-    <t>3.650,00</t>
-  </si>
-  <si>
-    <t>1.034,90</t>
-  </si>
-  <si>
-    <t>20.760,00</t>
-  </si>
-  <si>
-    <t>1.905,60</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>1.497,00</t>
-  </si>
-  <si>
-    <t>1.111,00</t>
-  </si>
-  <si>
-    <t>7.810,00</t>
-  </si>
-  <si>
-    <t>22.423,70</t>
-  </si>
-  <si>
-    <t>3.328,00</t>
-  </si>
-  <si>
-    <t>7.065,00</t>
-  </si>
-  <si>
-    <t>425,40</t>
-  </si>
-  <si>
-    <t>69,70</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>8.034,00</t>
-  </si>
-  <si>
-    <t>1.253,00</t>
-  </si>
-  <si>
-    <t>1.406,60</t>
-  </si>
-  <si>
-    <t>268,09</t>
-  </si>
-  <si>
-    <t>88.600,00</t>
-  </si>
-  <si>
-    <t>10.080,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>36.100,00</t>
-  </si>
-  <si>
-    <t>31.460,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>621,25</t>
-  </si>
-  <si>
-    <t>427,50</t>
-  </si>
-  <si>
-    <t>58,00</t>
-  </si>
-  <si>
-    <t>195,65</t>
-  </si>
-  <si>
-    <t>16.313,94</t>
-  </si>
-  <si>
-    <t>575,00</t>
-  </si>
-  <si>
-    <t>669,47</t>
-  </si>
-  <si>
-    <t>41,67</t>
-  </si>
-  <si>
-    <t>301.500,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>19.035,72</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.204,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>17.700,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>8.640,00</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>27.063,80</t>
-  </si>
-  <si>
-    <t>95,20</t>
-  </si>
-  <si>
-    <t>4.330,00</t>
-  </si>
-  <si>
-    <t>480,04</t>
-  </si>
-  <si>
-    <t>40.506,00</t>
-  </si>
-  <si>
-    <t>1.208,50</t>
-  </si>
-  <si>
-    <t>9.297,00</t>
-  </si>
-  <si>
-    <t>48,24</t>
-  </si>
-  <si>
-    <t>196,65</t>
-  </si>
-  <si>
-    <t>2.942,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.882,68</t>
-  </si>
-  <si>
-    <t>1.776,79</t>
-  </si>
-  <si>
-    <t>71.600,00</t>
-  </si>
-  <si>
-    <t>26.936,65</t>
-  </si>
-  <si>
-    <t>9.214,04</t>
-  </si>
-  <si>
-    <t>26.380,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>5.070,00</t>
-  </si>
-  <si>
-    <t>4.280,00</t>
-  </si>
-  <si>
-    <t>2.411,09</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>1.665,62</t>
-  </si>
-  <si>
-    <t>50.682,10</t>
-  </si>
-  <si>
-    <t>13.307,25</t>
-  </si>
-  <si>
-    <t>42.750,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>10.320,00</t>
-  </si>
-  <si>
-    <t>47,73</t>
-  </si>
-  <si>
-    <t>467.220,13</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>2.153.596,16</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>116.190,00</t>
-  </si>
-  <si>
-    <t>122.190,00</t>
-  </si>
-  <si>
-    <t>200.190,00</t>
-  </si>
-  <si>
-    <t>294.690,00</t>
-  </si>
-  <si>
-    <t>369.190,00</t>
-  </si>
-  <si>
-    <t>184.190,00</t>
-  </si>
-  <si>
-    <t>369.961,74</t>
-  </si>
-  <si>
-    <t>11.500.333,74</t>
-  </si>
-  <si>
-    <t>15.450,00</t>
-  </si>
-  <si>
-    <t>19.801,54</t>
-  </si>
-  <si>
-    <t>181.620,00</t>
-  </si>
-  <si>
-    <t>24.786,00</t>
-  </si>
-  <si>
-    <t>1.238,42</t>
-  </si>
-  <si>
-    <t>3.425,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>105.500,00</t>
-  </si>
-  <si>
-    <t>8,80</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>4460.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>689500.00</t>
+  </si>
+  <si>
+    <t>272000.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>79815.00</t>
+  </si>
+  <si>
+    <t>25830.00</t>
+  </si>
+  <si>
+    <t>744.54</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4998.15</t>
+  </si>
+  <si>
+    <t>150441.82</t>
+  </si>
+  <si>
+    <t>28645.20</t>
+  </si>
+  <si>
+    <t>45673.46</t>
+  </si>
+  <si>
+    <t>6970.00</t>
+  </si>
+  <si>
+    <t>7290.00</t>
+  </si>
+  <si>
+    <t>20634.73</t>
+  </si>
+  <si>
+    <t>5224.00</t>
+  </si>
+  <si>
+    <t>27827.33</t>
+  </si>
+  <si>
+    <t>12608.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>9190.00</t>
+  </si>
+  <si>
+    <t>6890.00</t>
+  </si>
+  <si>
+    <t>31.36</t>
+  </si>
+  <si>
+    <t>2626.98</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>269239.92</t>
+  </si>
+  <si>
+    <t>14098.35</t>
+  </si>
+  <si>
+    <t>3916.00</t>
+  </si>
+  <si>
+    <t>5545.77</t>
+  </si>
+  <si>
+    <t>14803.00</t>
+  </si>
+  <si>
+    <t>3038.10</t>
+  </si>
+  <si>
+    <t>1769.00</t>
+  </si>
+  <si>
+    <t>746.00</t>
+  </si>
+  <si>
+    <t>17793.94</t>
+  </si>
+  <si>
+    <t>3110.74</t>
+  </si>
+  <si>
+    <t>407.80</t>
+  </si>
+  <si>
+    <t>39703.57</t>
+  </si>
+  <si>
+    <t>19124.00</t>
+  </si>
+  <si>
+    <t>7971.22</t>
+  </si>
+  <si>
+    <t>5863.22</t>
+  </si>
+  <si>
+    <t>386118.60</t>
+  </si>
+  <si>
+    <t>7001.69</t>
+  </si>
+  <si>
+    <t>1047.00</t>
+  </si>
+  <si>
+    <t>20870.85</t>
+  </si>
+  <si>
+    <t>221.48</t>
+  </si>
+  <si>
+    <t>775.87</t>
+  </si>
+  <si>
+    <t>343200.00</t>
+  </si>
+  <si>
+    <t>22449.89</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>7908.48</t>
+  </si>
+  <si>
+    <t>15110.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>97182.00</t>
+  </si>
+  <si>
+    <t>12522.78</t>
+  </si>
+  <si>
+    <t>172.24</t>
+  </si>
+  <si>
+    <t>308.93</t>
+  </si>
+  <si>
+    <t>14431.14</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>4715.00</t>
+  </si>
+  <si>
+    <t>19740.00</t>
+  </si>
+  <si>
+    <t>366662.00</t>
+  </si>
+  <si>
+    <t>5243.23</t>
+  </si>
+  <si>
+    <t>1014.60</t>
+  </si>
+  <si>
+    <t>501.00</t>
+  </si>
+  <si>
+    <t>501.43</t>
+  </si>
+  <si>
+    <t>20940.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>21264.00</t>
+  </si>
+  <si>
+    <t>3337.80</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>1392.00</t>
+  </si>
+  <si>
+    <t>5169.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>5660.00</t>
+  </si>
+  <si>
+    <t>57070.00</t>
+  </si>
+  <si>
+    <t>9067.00</t>
+  </si>
+  <si>
+    <t>117450.00</t>
+  </si>
+  <si>
+    <t>30560.00</t>
+  </si>
+  <si>
+    <t>104.50</t>
+  </si>
+  <si>
+    <t>7130.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>8522.00</t>
+  </si>
+  <si>
+    <t>4540.00</t>
+  </si>
+  <si>
+    <t>399.98</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>577.80</t>
+  </si>
+  <si>
+    <t>2440.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>7.41</t>
+  </si>
+  <si>
+    <t>26.25</t>
+  </si>
+  <si>
+    <t>27994.92</t>
+  </si>
+  <si>
+    <t>5635.82</t>
+  </si>
+  <si>
+    <t>3650.00</t>
+  </si>
+  <si>
+    <t>1034.90</t>
+  </si>
+  <si>
+    <t>20760.00</t>
+  </si>
+  <si>
+    <t>1905.60</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>1497.00</t>
+  </si>
+  <si>
+    <t>1111.00</t>
+  </si>
+  <si>
+    <t>7810.00</t>
+  </si>
+  <si>
+    <t>22423.70</t>
+  </si>
+  <si>
+    <t>3328.00</t>
+  </si>
+  <si>
+    <t>7065.00</t>
+  </si>
+  <si>
+    <t>425.40</t>
+  </si>
+  <si>
+    <t>69.70</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>8034.00</t>
+  </si>
+  <si>
+    <t>1253.00</t>
+  </si>
+  <si>
+    <t>1406.60</t>
+  </si>
+  <si>
+    <t>268.09</t>
+  </si>
+  <si>
+    <t>88600.00</t>
+  </si>
+  <si>
+    <t>10080.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>36100.00</t>
+  </si>
+  <si>
+    <t>31460.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>621.25</t>
+  </si>
+  <si>
+    <t>427.50</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>195.65</t>
+  </si>
+  <si>
+    <t>16313.94</t>
+  </si>
+  <si>
+    <t>575.00</t>
+  </si>
+  <si>
+    <t>669.47</t>
+  </si>
+  <si>
+    <t>41.67</t>
+  </si>
+  <si>
+    <t>301500.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>19035.72</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3204.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>17700.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>8640.00</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>27063.80</t>
+  </si>
+  <si>
+    <t>95.20</t>
+  </si>
+  <si>
+    <t>4330.00</t>
+  </si>
+  <si>
+    <t>480.04</t>
+  </si>
+  <si>
+    <t>40506.00</t>
+  </si>
+  <si>
+    <t>1208.50</t>
+  </si>
+  <si>
+    <t>9297.00</t>
+  </si>
+  <si>
+    <t>48.24</t>
+  </si>
+  <si>
+    <t>196.65</t>
+  </si>
+  <si>
+    <t>2942.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2882.68</t>
+  </si>
+  <si>
+    <t>1776.79</t>
+  </si>
+  <si>
+    <t>71600.00</t>
+  </si>
+  <si>
+    <t>26936.65</t>
+  </si>
+  <si>
+    <t>9214.04</t>
+  </si>
+  <si>
+    <t>26380.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>5070.00</t>
+  </si>
+  <si>
+    <t>4280.00</t>
+  </si>
+  <si>
+    <t>2411.09</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>1665.62</t>
+  </si>
+  <si>
+    <t>50682.10</t>
+  </si>
+  <si>
+    <t>13307.25</t>
+  </si>
+  <si>
+    <t>42750.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>10320.00</t>
+  </si>
+  <si>
+    <t>47.73</t>
+  </si>
+  <si>
+    <t>467220.13</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>2153596.16</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>116190.00</t>
+  </si>
+  <si>
+    <t>122190.00</t>
+  </si>
+  <si>
+    <t>200190.00</t>
+  </si>
+  <si>
+    <t>294690.00</t>
+  </si>
+  <si>
+    <t>369190.00</t>
+  </si>
+  <si>
+    <t>184190.00</t>
+  </si>
+  <si>
+    <t>369961.74</t>
+  </si>
+  <si>
+    <t>11500333.74</t>
+  </si>
+  <si>
+    <t>15450.00</t>
+  </si>
+  <si>
+    <t>19801.54</t>
+  </si>
+  <si>
+    <t>181620.00</t>
+  </si>
+  <si>
+    <t>24786.00</t>
+  </si>
+  <si>
+    <t>1238.42</t>
+  </si>
+  <si>
+    <t>3425.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>105500.00</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>1540.00</t>
   </si>
 </sst>
 </file>
